--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2021.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2021.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155479684102006</v>
+        <v>1.138256430625916</v>
       </c>
       <c r="B1">
-        <v>2.335366262311581</v>
+        <v>2.608568429946899</v>
       </c>
       <c r="C1">
-        <v>7.236077967934706</v>
+        <v>6.981382369995117</v>
       </c>
       <c r="D1">
-        <v>2.397341109665133</v>
+        <v>2.075896501541138</v>
       </c>
       <c r="E1">
-        <v>1.226017975018886</v>
+        <v>1.189907789230347</v>
       </c>
     </row>
   </sheetData>
